--- a/JAVA作業チェックシート【P161】ジャンケン  .xlsx
+++ b/JAVA作業チェックシート【P161】ジャンケン  .xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houshuw\Documents\JAVA\P161\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houshuw\Documents\JAVA\P161\完成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB24C6-6791-4EDA-86AA-42D704A77FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B6908-B252-41CC-9D64-93CDF027681A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="8" windowWidth="19185" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="チェックシート" sheetId="1" r:id="rId1"/>
     <sheet name="GitHubアップロード手順" sheetId="2" r:id="rId2"/>
+    <sheet name="Janken" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>要件定義の確認</t>
     <rPh sb="0" eb="2">
@@ -407,27 +408,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">      if (userinput==0) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>System.out.println("0が入力されたのでジャンケンを終了します。");</t>
-  </si>
-  <si>
-    <t>break;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       else {</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -462,6 +442,13 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -528,12 +515,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -717,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -743,9 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +748,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1005,6 +1006,146 @@
         <a:xfrm>
           <a:off x="119063" y="10252523"/>
           <a:ext cx="6853237" cy="3287298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17010</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>307522</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>193245</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF7B6D4-2964-4327-A3BA-1118EBC24A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="85046" y="140835"/>
+          <a:ext cx="7849280" cy="6338910"/>
+          <a:chOff x="90489" y="228600"/>
+          <a:chExt cx="7834312" cy="6319860"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBD1091-9D14-4007-809D-C088900E4710}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="138112" y="228600"/>
+            <a:ext cx="7781982" cy="5124487"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96A14BC-418C-4B6E-93AD-D397E5997F7D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect l="1043" r="8722"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="90489" y="3519488"/>
+            <a:ext cx="7834312" cy="3028972"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>153080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>563336</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FD6E67-F151-4764-8236-27865E040A1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="1843" t="1049" r="4112"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8041142" y="153080"/>
+          <a:ext cx="6333444" cy="4958478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,19 +1420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R31"/>
+  <dimension ref="B1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="2.3125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:15">
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1452,7 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:15">
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1472,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:15">
       <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1349,7 +1492,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
     </row>
-    <row r="4" spans="2:18" ht="18" thickBot="1">
+    <row r="4" spans="2:15" ht="18" thickBot="1">
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
@@ -1369,9 +1512,9 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="2:18">
-      <c r="G5" s="27" t="s">
-        <v>30</v>
+    <row r="5" spans="2:15">
+      <c r="G5" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1382,7 +1525,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="2:18" ht="18" thickBot="1">
+    <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1538,7 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -1406,8 +1549,18 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="18" thickBot="1"/>
-    <row r="8" spans="2:18">
+    <row r="7" spans="2:15" ht="18" thickBot="1">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="32">
+        <v>43935</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.4368055555555555</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="22"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1421,8 +1574,8 @@
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="2:15">
+      <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1436,12 +1589,9 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="18" thickBot="1">
-      <c r="B10" s="24"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" thickBot="1">
+      <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1453,27 +1603,15 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="12"/>
-      <c r="Q10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="18" thickBot="1">
-      <c r="B11" s="25"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" thickBot="1">
+      <c r="B11" s="24"/>
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="18" thickBot="1">
-      <c r="B12" s="26" t="s">
+    </row>
+    <row r="12" spans="2:15" ht="18" thickBot="1">
+      <c r="B12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1487,22 +1625,16 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
-      <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="18" thickBot="1">
-      <c r="B13" s="25"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" thickBot="1">
+      <c r="B13" s="24"/>
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="22" t="s">
-        <v>29</v>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>9</v>
@@ -1516,8 +1648,8 @@
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:18" ht="18" thickBot="1">
-      <c r="B15" s="24"/>
+    <row r="15" spans="2:15" ht="18" thickBot="1">
+      <c r="B15" s="23"/>
       <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
@@ -1529,19 +1661,16 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
-      <c r="R15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="18" thickBot="1">
-      <c r="B16" s="25"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" thickBot="1">
+      <c r="B16" s="24"/>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="22" t="s">
-        <v>29</v>
+      <c r="B17" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>12</v>
@@ -1556,7 +1685,7 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" ht="18" thickBot="1">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="17" t="s">
         <v>10</v>
       </c>
@@ -1570,14 +1699,14 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11" ht="18" thickBot="1">
-      <c r="B19" s="25"/>
+      <c r="B19" s="24"/>
       <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="22" t="s">
-        <v>29</v>
+      <c r="B20" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>18</v>
@@ -1592,7 +1721,7 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="18" thickBot="1">
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
@@ -1606,14 +1735,14 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11" ht="18" thickBot="1">
-      <c r="B22" s="25"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="22" t="s">
-        <v>29</v>
+      <c r="B23" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>13</v>
@@ -1628,7 +1757,7 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="2:11" ht="18" thickBot="1">
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="17" t="s">
         <v>14</v>
       </c>
@@ -1642,13 +1771,13 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="2:11" ht="18" thickBot="1">
-      <c r="B25" s="25"/>
+      <c r="B25" s="24"/>
       <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="18" thickBot="1">
-      <c r="B26" s="26"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="18"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -1665,7 +1794,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="18" thickBot="1">
-      <c r="B28" s="26"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="18" t="s">
         <v>11</v>
       </c>
@@ -1679,13 +1808,13 @@
       <c r="K28" s="15"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="28" t="s">
-        <v>30</v>
+      <c r="B30" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="29" t="s">
-        <v>31</v>
+      <c r="B31" s="28" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0186D3D0-FD76-4399-9BE1-4C5488B3472E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1711,4 +1840,24 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A8AE5D-2E36-4865-81EE-676111B3E75D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y11" sqref="A8:Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>